--- a/11_Process_Thread/06 线程上下文环境.xlsx
+++ b/11_Process_Thread/06 线程上下文环境.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\11_Process_Thread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFF12DB-7A24-4906-AFB0-25E23FB91B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468BDBF-CF31-41ED-85C6-1B7569477020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>线程上下文环境</t>
   </si>
@@ -1090,13 +1090,21 @@
       </rPr>
       <t xml:space="preserve">                                                            //0x88</t>
     </r>
+  </si>
+  <si>
+    <t>从R0进R3，ktrap_frame 转换为 context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从R3进R0，context 转换为 ktrap_frame </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1166,6 +1174,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1188,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1201,6 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1542,36 +1560,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" activeCellId="1" sqref="B6 B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" location="Sheet3!A1" display="2、R0 的线程上下文环境 KTRAP_FRAME" xr:uid="{E7FBE014-6CED-4960-95D1-0328020A3864}"/>
+    <hyperlink ref="B8" location="Sheet3!A1" display="2、R0 的线程上下文环境 KTRAP_FRAME" xr:uid="{E7FBE014-6CED-4960-95D1-0328020A3864}"/>
     <hyperlink ref="B4" location="Sheet2!A1" display="1、R3 的线程上下文环境 CONTEXT" xr:uid="{7DE27E82-E448-4486-B528-7BD6C97205A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
